--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,13 +381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M2"/>
+  <dimension ref="A2:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -427,6 +431,47 @@
       </c>
       <c r="M2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianpopescu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC777D-AA33-4D44-A309-1B73A188FB1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,19 +381,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43790</v>
       </c>
@@ -471,6 +472,47 @@
         <v>4</v>
       </c>
       <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
     </row>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianpopescu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC777D-AA33-4D44-A309-1B73A188FB1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,16 +59,16 @@
     <t>Pisi work day</t>
   </si>
   <si>
-    <t>Number of beers</t>
-  </si>
-  <si>
     <t>Wine glasses</t>
+  </si>
+  <si>
+    <t>Beers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,19 +380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -428,15 +427,15 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -475,9 +474,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43791</v>
+        <v>43792</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -514,6 +513,47 @@
       </c>
       <c r="M4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>16.5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M5"/>
+  <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +556,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>12.5</v>
+      </c>
+      <c r="G6">
+        <v>3.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>776</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +597,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6.5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianpopescu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FD5B7-79D1-3246-90B3-8585F6619CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,19 +381,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43791</v>
       </c>
@@ -474,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43792</v>
       </c>
@@ -515,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43793</v>
       </c>
@@ -556,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43794</v>
       </c>
@@ -597,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43795</v>
       </c>
@@ -636,6 +637,129 @@
       </c>
       <c r="M7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianpopescu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apopesc2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FD5B7-79D1-3246-90B3-8585F6619CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,19 +380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43791</v>
       </c>
@@ -475,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43792</v>
       </c>
@@ -516,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43793</v>
       </c>
@@ -557,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43794</v>
       </c>
@@ -598,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43795</v>
       </c>
@@ -639,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43796</v>
       </c>
@@ -680,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43797</v>
       </c>
@@ -721,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43798</v>
       </c>
@@ -747,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -760,6 +759,88 @@
       </c>
       <c r="M10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>16.5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>12.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M12"/>
+  <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +843,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>955</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +884,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +925,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M15"/>
+  <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
         <v>43803</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -964,6 +964,47 @@
       </c>
       <c r="M15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1007,129 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>12.5</v>
+      </c>
+      <c r="G18">
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1130,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1171,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>12.5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M21"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,6 +1212,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1253,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>16.5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M23"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1294,129 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>12.5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3.5</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1417,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>12.5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M27"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,6 +1458,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43818</v>
+      </c>
+      <c r="J29">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,8 +1503,41 @@
       <c r="A29" s="1">
         <v>43818</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="J29">
         <v>41</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1538,6 +1538,52 @@
       </c>
       <c r="M29">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/daily_expenses.xlsx
+++ b/daily_expenses.xlsx
@@ -98,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,8 +1583,126 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
       <c r="H31">
         <v>2.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3.5</v>
+      </c>
+      <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43821</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>12.5</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
